--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44349,6 +44349,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44386,6 +44386,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>10400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44421,6 +44421,41 @@
         <v>10400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44456,6 +44456,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44493,6 +44493,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>7100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44528,6 +44528,43 @@
         <v>7100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44565,6 +44565,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44602,6 +44602,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>6200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44637,6 +44637,41 @@
         <v>6200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>16500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44672,6 +44672,41 @@
         <v>16500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>4200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44707,6 +44707,43 @@
         <v>4200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44744,6 +44744,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44781,6 +44781,76 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>7100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44851,6 +44851,78 @@
         <v>7100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>12600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44923,6 +44923,41 @@
         <v>12600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44958,6 +44958,43 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44995,6 +44995,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45030,6 +45030,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>6600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45065,6 +45065,80 @@
         <v>6600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45139,6 +45139,41 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>16300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45174,6 +45174,41 @@
         <v>16300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2333"/>
+  <dimension ref="A1:I2334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83429,6 +83429,43 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I2334" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83466,6 +83466,41 @@
         </is>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2335" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2335"/>
+  <dimension ref="A1:I2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83501,6 +83501,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I2336" t="n">
+        <v>25700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83536,6 +83536,41 @@
         <v>25700</v>
       </c>
     </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I2337" t="n">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2337"/>
+  <dimension ref="A1:I2338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83571,6 +83571,41 @@
         <v>700</v>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2338" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2338"/>
+  <dimension ref="A1:I2339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83606,6 +83606,43 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2339" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2339"/>
+  <dimension ref="A1:I2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83643,6 +83643,41 @@
         </is>
       </c>
     </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2340" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83678,6 +83678,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2341" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2341"/>
+  <dimension ref="A1:I2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83715,6 +83715,41 @@
         </is>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2342" t="n">
+        <v>12400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2342"/>
+  <dimension ref="A1:I2343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83750,6 +83750,41 @@
         <v>12400</v>
       </c>
     </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>8700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2343"/>
+  <dimension ref="A1:I2344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83785,6 +83785,43 @@
         <v>8700</v>
       </c>
     </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2344" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2344"/>
+  <dimension ref="A1:I2345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83822,6 +83822,43 @@
         </is>
       </c>
     </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2345" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2345"/>
+  <dimension ref="A1:I2346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83859,6 +83859,43 @@
         </is>
       </c>
     </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2346" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2346"/>
+  <dimension ref="A1:I2347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83896,6 +83896,43 @@
         </is>
       </c>
     </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2347" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7137.xlsx
+++ b/data/7137.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83933,6 +83933,43 @@
         </is>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>7137</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>UMS</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2348" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
